--- a/Class roster 0583003007-統計学-7.xlsx
+++ b/Class roster 0583003007-統計学-7.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yohkawano/Library/CloudStorage/GoogleDrive-ykawano@reitaku-u.ac.jp/My Drive/Classroom/2023 2nd Semester/23-2-Reitaku-Stats-B/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AD129C86-35EB-394D-80C0-EC4EFB48D8BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{62392DFC-17B9-F843-9402-8476AB72454D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="21900"/>
+    <workbookView xWindow="-15940" yWindow="-28300" windowWidth="68800" windowHeight="28300"/>
   </bookViews>
   <sheets>
     <sheet name="0583003007-統計学-7" sheetId="1" r:id="rId1"/>
@@ -1380,8 +1380,8 @@
   </sheetPr>
   <dimension ref="A1:I31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:I1"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="K23" sqref="K23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="34.28515625" defaultRowHeight="54" customHeight="1"/>
